--- a/Normalization.xlsx
+++ b/Normalization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegobeltran/Projects/Movies_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1134D4C4-C378-A745-AF3E-1404D2E1174B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B024D8-AD43-0E43-81D2-FD59A263E925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13460" yWindow="520" windowWidth="22720" windowHeight="20760" activeTab="7" xr2:uid="{68CFA516-B1EA-1040-89E0-3E7039C4FBDE}"/>
+    <workbookView xWindow="100" yWindow="500" windowWidth="19420" windowHeight="20760" activeTab="5" xr2:uid="{68CFA516-B1EA-1040-89E0-3E7039C4FBDE}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5009" uniqueCount="1201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5066" uniqueCount="1215">
   <si>
     <t>ID</t>
   </si>
@@ -3697,7 +3697,49 @@
     <t>PRODUCTOR</t>
   </si>
   <si>
-    <t>CREADOR_HISTORIA</t>
+    <t>MARÍA CAMILA ARIAS</t>
+  </si>
+  <si>
+    <t>JACQUES TOULEMONDE</t>
+  </si>
+  <si>
+    <t>KATRIN PORS</t>
+  </si>
+  <si>
+    <t>LEO HEIBLUM</t>
+  </si>
+  <si>
+    <t>STORY BY</t>
+  </si>
+  <si>
+    <t>ANTHONY MCCARTEN</t>
+  </si>
+  <si>
+    <t>PETER MORGAN</t>
+  </si>
+  <si>
+    <t>JIM BEACH</t>
+  </si>
+  <si>
+    <t>GRAHAM KING</t>
+  </si>
+  <si>
+    <t>DAVID LESLIE JOHNSON-MCGOLDRICK</t>
+  </si>
+  <si>
+    <t>WILL BEALL</t>
+  </si>
+  <si>
+    <t>GEOFF JOHNS</t>
+  </si>
+  <si>
+    <t>ROB COWAN</t>
+  </si>
+  <si>
+    <t>PETER SAFRAN</t>
+  </si>
+  <si>
+    <t>RUPERT GREGSON-WILLIAMS</t>
   </si>
 </sst>
 </file>
@@ -3706,7 +3748,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -3797,7 +3839,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3913,8 +3955,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -23661,7 +23709,7 @@
   <dimension ref="A1:F376"/>
   <sheetViews>
     <sheetView zoomScale="99" workbookViewId="0">
-      <selection sqref="A1:F376"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33011,7 +33059,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="1:7" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="13">
         <v>78</v>
       </c>
@@ -36139,7 +36187,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="215" spans="1:7" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A215" s="13">
         <v>214</v>
       </c>
@@ -53877,20 +53925,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60227452-35FF-BA49-B36E-F93518844FB0}">
-  <dimension ref="A1:F466"/>
+  <dimension ref="A1:F485"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F466"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A442" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D467" sqref="D467:D485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" style="20" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -53900,12 +53949,12 @@
       <c r="B1" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="45"/>
       <c r="D1" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" t="s">
+      <c r="E1" s="45"/>
+      <c r="F1" s="20" t="s">
         <v>1188</v>
       </c>
     </row>
@@ -64138,6 +64187,215 @@
       </c>
       <c r="F466" s="42" t="s">
         <v>1196</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C467" s="20" t="s">
+        <v>623</v>
+      </c>
+      <c r="E467" s="20" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F467" s="44" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C468" s="20" t="s">
+        <v>623</v>
+      </c>
+      <c r="E468" s="20" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F468" s="44" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C469" s="20" t="s">
+        <v>623</v>
+      </c>
+      <c r="E469" s="20" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F469" s="44" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C470" s="20" t="s">
+        <v>623</v>
+      </c>
+      <c r="E470" s="20" t="s">
+        <v>999</v>
+      </c>
+      <c r="F470" s="44" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C471" s="20" t="s">
+        <v>623</v>
+      </c>
+      <c r="E471" s="20" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F471" s="44" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C472" s="20" t="s">
+        <v>623</v>
+      </c>
+      <c r="E472" s="20" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F472" s="44" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C473" s="20" t="s">
+        <v>624</v>
+      </c>
+      <c r="E473" s="20" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F473" s="44" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C474" s="20" t="s">
+        <v>624</v>
+      </c>
+      <c r="E474" s="20" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F474" s="44" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C475" s="20" t="s">
+        <v>624</v>
+      </c>
+      <c r="E475" s="20" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F475" s="44" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C476" s="20" t="s">
+        <v>624</v>
+      </c>
+      <c r="E476" s="20" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F476" s="44" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C477" s="20" t="s">
+        <v>624</v>
+      </c>
+      <c r="E477" s="20" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F477" s="44" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C478" s="20" t="s">
+        <v>625</v>
+      </c>
+      <c r="E478" s="20" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F478" s="20" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C479" s="20" t="s">
+        <v>625</v>
+      </c>
+      <c r="E479" s="20" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F479" s="20" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C480" s="20" t="s">
+        <v>625</v>
+      </c>
+      <c r="E480" s="20" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F480" s="20" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="481" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C481" s="20" t="s">
+        <v>625</v>
+      </c>
+      <c r="E481" s="20" t="s">
+        <v>922</v>
+      </c>
+      <c r="F481" s="20" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="482" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C482" s="20" t="s">
+        <v>625</v>
+      </c>
+      <c r="E482" s="20" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F482" s="20" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="483" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C483" s="20" t="s">
+        <v>625</v>
+      </c>
+      <c r="E483" s="20" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F483" s="20" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="484" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C484" s="20" t="s">
+        <v>625</v>
+      </c>
+      <c r="E484" s="20" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F484" s="20" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="485" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C485" s="20" t="s">
+        <v>625</v>
+      </c>
+      <c r="E485" s="20" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F485" s="20" t="s">
+        <v>1198</v>
       </c>
     </row>
   </sheetData>
@@ -64151,7 +64409,7 @@
   <dimension ref="A1:B322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -66744,13 +67002,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACFA994-AA82-254B-A6AD-9A68FB829BF7}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -66798,7 +67056,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1200</v>
+        <v>1204</v>
       </c>
     </row>
   </sheetData>
